--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,286 +49,289 @@
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>die</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>isolation</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>empty</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>isolation</t>
+    <t>drop</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>share</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>save</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>key</t>
   </si>
   <si>
+    <t>available</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
     <t>health</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>san</t>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -694,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -776,16 +779,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -797,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -826,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -847,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -855,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -873,31 +876,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="L5">
+        <v>44</v>
+      </c>
+      <c r="M5">
+        <v>44</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5">
-        <v>0.9491525423728814</v>
-      </c>
-      <c r="L5">
-        <v>56</v>
-      </c>
-      <c r="M5">
-        <v>56</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -905,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8333333333333334</v>
+        <v>0.76</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -926,16 +929,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -955,13 +958,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -973,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -997,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1005,7 +1008,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.76</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -1023,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>0.8518518518518519</v>
@@ -1076,16 +1079,16 @@
         <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1097,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1105,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.702054794520548</v>
+        <v>0.6952054794520548</v>
       </c>
       <c r="C10">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D10">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1123,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K10">
         <v>0.8414634146341463</v>
@@ -1155,7 +1158,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6842105263157895</v>
+        <v>0.65</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -1173,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.8297872340425532</v>
+        <v>0.828125</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1197,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1205,7 +1208,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6086956521739131</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -1223,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.828125</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1247,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1255,13 +1258,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6052631578947368</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1273,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.8275862068965517</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1297,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1305,13 +1308,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1323,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>0.7916666666666666</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L14">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1347,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1355,13 +1358,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5384615384615384</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1373,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>0.7894736842105263</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1397,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1405,13 +1408,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5161290322580645</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1423,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>0.7816901408450704</v>
+        <v>0.8</v>
       </c>
       <c r="L16">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="M16">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1447,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1476,16 +1479,16 @@
         <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>0.7727272727272727</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1497,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1505,13 +1508,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4533333333333333</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1523,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>0.7619047619047619</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="M18">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1547,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1555,37 +1558,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4358974358974359</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>17</v>
       </c>
-      <c r="D19">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>22</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>0.7450980392156863</v>
+        <v>0.73125</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1597,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1605,13 +1608,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4161073825503356</v>
+        <v>0.436241610738255</v>
       </c>
       <c r="C20">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D20">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1623,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>0.7358490566037735</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L20">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1647,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1655,13 +1658,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3798449612403101</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C21">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1673,19 +1676,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>320</v>
+        <v>23</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K21">
-        <v>0.723404255319149</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1697,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1705,13 +1708,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3728813559322034</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1723,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1747,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1755,13 +1758,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3513513513513514</v>
+        <v>0.3624031007751938</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1773,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>24</v>
+        <v>329</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.69375</v>
+        <v>0.66</v>
       </c>
       <c r="L23">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1797,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1805,13 +1808,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3506493506493507</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1823,19 +1826,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K24">
-        <v>0.6296296296296297</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1847,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1855,13 +1858,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3333333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1873,31 +1876,31 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>48</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L25">
+        <v>60</v>
+      </c>
+      <c r="M25">
+        <v>60</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>34</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25">
-        <v>0.625</v>
-      </c>
-      <c r="L25">
-        <v>30</v>
-      </c>
-      <c r="M25">
-        <v>30</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1905,13 +1908,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.325</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1923,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K26">
-        <v>0.6214099216710183</v>
+        <v>0.6292428198433421</v>
       </c>
       <c r="L26">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M26">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1947,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1955,13 +1958,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3174603174603174</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="C27">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1973,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K27">
-        <v>0.6111111111111112</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1997,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2005,13 +2008,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2727272727272727</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2023,19 +2026,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2047,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2055,13 +2058,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2555555555555555</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2073,19 +2076,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K29">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2097,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2105,13 +2108,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2549019607843137</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2123,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K30">
-        <v>0.5823529411764706</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L30">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2147,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>142</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2155,13 +2158,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2375</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2173,19 +2176,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K31">
-        <v>0.5813953488372093</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2197,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2226,16 +2229,16 @@
         <v>45</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K32">
-        <v>0.5525423728813559</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L32">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M32">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2247,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2255,13 +2258,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2222222222222222</v>
+        <v>0.2125</v>
       </c>
       <c r="C33">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2273,19 +2276,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K33">
-        <v>0.5393258426966292</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L33">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2297,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2305,13 +2308,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1206434316353887</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C34">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D34">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2323,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>328</v>
+        <v>200</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K34">
-        <v>0.5357142857142857</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2347,73 +2350,121 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.1152815013404826</v>
+      </c>
+      <c r="C35">
+        <v>43</v>
+      </c>
+      <c r="D35">
+        <v>43</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>330</v>
+      </c>
       <c r="J35" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K35">
-        <v>0.5188284518828452</v>
+        <v>0.525</v>
       </c>
       <c r="L35">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>21</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.004405286343612335</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>37</v>
+      </c>
+      <c r="E36">
+        <v>0.62</v>
+      </c>
+      <c r="F36">
+        <v>0.38</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>3164</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36">
+        <v>0.4811715481171548</v>
+      </c>
+      <c r="L36">
+        <v>115</v>
+      </c>
+      <c r="M36">
+        <v>115</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>124</v>
-      </c>
-      <c r="M35">
-        <v>124</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K36">
-        <v>0.5</v>
-      </c>
-      <c r="L36">
-        <v>25</v>
-      </c>
-      <c r="M36">
-        <v>25</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K37">
-        <v>0.4871794871794872</v>
+        <v>0.453125</v>
       </c>
       <c r="L37">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2425,21 +2476,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K38">
-        <v>0.46875</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2451,21 +2502,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K39">
-        <v>0.4615384615384616</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2477,21 +2528,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K40">
-        <v>0.4545454545454545</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2503,21 +2554,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K41">
-        <v>0.4516129032258064</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2529,21 +2580,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K42">
-        <v>0.4383561643835616</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L42">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2555,21 +2606,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K43">
-        <v>0.4222222222222222</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2581,47 +2632,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K44">
-        <v>0.3714285714285714</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K45">
-        <v>0.2978723404255319</v>
+        <v>0.325</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2633,21 +2684,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K46">
-        <v>0.2950819672131147</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2659,21 +2710,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K47">
-        <v>0.2714285714285714</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2685,21 +2736,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K48">
-        <v>0.2203389830508475</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2716,68 +2767,68 @@
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K49">
-        <v>0.1473684210526316</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>81</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K50">
-        <v>0.1076923076923077</v>
+        <v>0.1196172248803828</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N50">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>116</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K51">
-        <v>0.1076555023923445</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="L51">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2789,21 +2840,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>373</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K52">
-        <v>0.1033653846153846</v>
+        <v>0.1081730769230769</v>
       </c>
       <c r="L52">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M52">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2815,47 +2866,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K53">
-        <v>0.09182530795072788</v>
+        <v>0.09955257270693513</v>
       </c>
       <c r="L53">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M53">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N53">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K54">
-        <v>0.08588957055214724</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2867,21 +2918,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>149</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K55">
-        <v>0.07906976744186046</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2893,15 +2944,15 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K56">
-        <v>0.0755813953488372</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="L56">
         <v>13</v>
@@ -2919,171 +2970,171 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K57">
-        <v>0.06976744186046512</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K58">
-        <v>0.06888888888888889</v>
+        <v>0.07103218645948946</v>
       </c>
       <c r="L58">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M58">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K59">
-        <v>0.05521472392638037</v>
+        <v>0.04728950403690888</v>
       </c>
       <c r="L59">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M59">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N59">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>308</v>
+        <v>826</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K60">
-        <v>0.04938271604938271</v>
+        <v>0.04160246533127889</v>
       </c>
       <c r="L60">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M60">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N60">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O60">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K61">
-        <v>0.04067321178120617</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="L61">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="M61">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="N61">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O61">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>2052</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K62">
-        <v>0.03579676674364896</v>
+        <v>0.03230337078651686</v>
       </c>
       <c r="L62">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="M62">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="N62">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="O62">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>835</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K63">
-        <v>0.02674897119341564</v>
+        <v>0.02292768959435626</v>
       </c>
       <c r="L63">
         <v>13</v>
@@ -3101,85 +3152,85 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>473</v>
+        <v>554</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K64">
-        <v>0.02068252326783868</v>
+        <v>0.02229402261712439</v>
       </c>
       <c r="L64">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="M64">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="N64">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="O64">
-        <v>0.05000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>947</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K65">
-        <v>0.02063850370848113</v>
+        <v>0.01658031088082901</v>
       </c>
       <c r="L65">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M65">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="N65">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="O65">
-        <v>0.08999999999999997</v>
+        <v>0.16</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>3037</v>
+        <v>949</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="K66">
-        <v>0.008780181875195987</v>
+        <v>0.00721681832444305</v>
       </c>
       <c r="L66">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M66">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N66">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="O66">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>3161</v>
+        <v>3164</v>
       </c>
     </row>
   </sheetData>
